--- a/shell_FEM/Livro1.xlsx
+++ b/shell_FEM/Livro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Desktop\Estrutural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBD16EA-3CBE-4B14-9E3D-089E6B37D739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BDB140-B9B7-41E9-9126-A586EECB988B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" activeTab="3" xr2:uid="{888A6D22-D5F6-4316-BCF6-51E52A0EEF22}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>Points</t>
   </si>
@@ -143,12 +143,6 @@
     <t>Loading</t>
   </si>
   <si>
-    <t>t [s]</t>
-  </si>
-  <si>
-    <t>p1 [bar]</t>
-  </si>
-  <si>
     <t>Material 3</t>
   </si>
   <si>
@@ -177,6 +171,24 @@
   </si>
   <si>
     <t>Element Dimension</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>AnalysisType</t>
+  </si>
+  <si>
+    <t>Static</t>
+  </si>
+  <si>
+    <t>Modal</t>
+  </si>
+  <si>
+    <t>Dynamic</t>
   </si>
 </sst>
 </file>
@@ -280,7 +292,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -336,11 +348,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -389,9 +414,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -435,11 +457,32 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,7 +603,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Loading!$A$3:$A$82</c:f>
+              <c:f>Loading!$C$2:$C$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="80"/>
@@ -809,7 +852,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Loading!$B$3:$B$82</c:f>
+              <c:f>Loading!$D$2:$D$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="80"/>
@@ -2894,16 +2937,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>250030</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>97630</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>588167</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>7143</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>288130</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>126205</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>626267</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2959,8 +3002,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="42028953" y="850325"/>
-          <a:ext cx="5055493" cy="7255876"/>
+          <a:off x="41119102" y="850325"/>
+          <a:ext cx="5055494" cy="7255876"/>
           <a:chOff x="16846428" y="389059"/>
           <a:chExt cx="2086708" cy="2509107"/>
         </a:xfrm>
@@ -3919,16 +3962,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>196683</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>127338</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>47410</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>6499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>1350560</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>21324</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>618415</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>92407</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4376,33 +4419,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="25" t="s">
-        <v>43</v>
+      <c r="A1" s="24" t="s">
+        <v>41</v>
       </c>
       <c r="B1" s="8"/>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>42</v>
+      <c r="F1" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="22">
+      <c r="A2" s="21">
         <f>COUNTIF(D1:BE1, "&lt;&gt;")</f>
         <v>4</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="23" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="22" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="12">
@@ -4419,7 +4462,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="12">
@@ -4436,7 +4479,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="12">
@@ -4453,7 +4496,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="12">
@@ -4470,7 +4513,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="12">
@@ -4487,24 +4530,24 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="25">
         <v>27</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="25">
         <v>43</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="26">
         <v>65</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="26">
         <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="12">
@@ -4522,34 +4565,34 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D9" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E12" s="34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F12" s="34"/>
-      <c r="G12" s="21"/>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E13" s="34"/>
       <c r="F13" s="34"/>
-      <c r="G13" s="21"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4562,671 +4605,924 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC94FB2-B591-4728-AF0F-84260587B016}">
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView zoomScale="76" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="10.3984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.649999999999999" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="35"/>
-    </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.45">
-      <c r="A2" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
+        <v>26</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="37">
+        <f>COUNTIF(C2:C315, "&lt;&gt;")</f>
+        <v>80</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="B3" s="1">
+      <c r="D2" s="1">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="D3" s="1">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="1">
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="1">
         <v>0.129</v>
       </c>
-      <c r="B5" s="1">
+      <c r="D4" s="1">
         <v>4.91</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="1">
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1">
         <v>0.192</v>
       </c>
-      <c r="B6" s="1">
+      <c r="D5" s="1">
         <v>15.91</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="1">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1">
         <v>0.25700000000000001</v>
       </c>
-      <c r="B7" s="1">
+      <c r="D6" s="1">
         <v>18.84</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="1">
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1">
         <v>0.32100000000000001</v>
       </c>
-      <c r="B8" s="1">
+      <c r="D7" s="1">
         <v>18.11</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="1">
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="1">
         <v>0.38600000000000001</v>
       </c>
-      <c r="B9" s="1">
+      <c r="D8" s="1">
         <v>18.11</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="1">
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="1">
         <v>0.44900000000000001</v>
       </c>
-      <c r="B10" s="1">
+      <c r="D9" s="1">
         <v>18.84</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="1">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="1">
         <v>0.51400000000000001</v>
       </c>
-      <c r="B11" s="1">
+      <c r="D10" s="1">
         <v>19.57</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="1">
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1">
         <v>0.57800000000000007</v>
       </c>
-      <c r="B12" s="1">
+      <c r="D11" s="1">
         <v>20.309999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="1">
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="1">
         <v>0.64300000000000002</v>
       </c>
-      <c r="B13" s="1">
+      <c r="D12" s="1">
         <v>21.04</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" s="1">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="1">
         <v>0.70599999999999996</v>
       </c>
-      <c r="B14" s="1">
+      <c r="D13" s="1">
         <v>21.77</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="1">
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="1">
         <v>0.77099999999999991</v>
       </c>
-      <c r="B15" s="1">
+      <c r="D14" s="1">
         <v>23.24</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" s="1">
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="1">
         <v>0.83499999999999996</v>
       </c>
-      <c r="B16" s="1">
+      <c r="D15" s="1">
         <v>23.24</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="1">
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="1">
         <v>0.89999999999999991</v>
       </c>
-      <c r="B17" s="1">
+      <c r="D16" s="1">
         <v>24.71</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" s="1">
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="1">
         <v>0.96299999999999986</v>
       </c>
-      <c r="B18" s="1">
+      <c r="D17" s="1">
         <v>24.71</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" s="1">
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="1">
         <v>1.0279999999999998</v>
       </c>
-      <c r="B19" s="1">
+      <c r="D18" s="1">
         <v>25.44</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" s="1">
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="1">
         <v>1.0919999999999999</v>
       </c>
-      <c r="B20" s="1">
+      <c r="D19" s="1">
         <v>25.44</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" s="1">
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="1">
         <v>1.1569999999999998</v>
       </c>
-      <c r="B21" s="1">
+      <c r="D20" s="1">
         <v>26.17</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" s="1">
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="1">
         <v>1.2199999999999998</v>
       </c>
-      <c r="B22" s="1">
+      <c r="D21" s="1">
         <v>26.17</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" s="1">
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="1">
         <v>1.2849999999999997</v>
       </c>
-      <c r="B23" s="1">
+      <c r="D22" s="1">
         <v>26.17</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" s="1">
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="1">
         <v>1.3489999999999998</v>
       </c>
-      <c r="B24" s="1">
+      <c r="D23" s="1">
         <v>26.17</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25" s="1">
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="1">
         <v>1.4139999999999997</v>
       </c>
-      <c r="B25" s="1">
+      <c r="D24" s="1">
         <v>26.91</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26" s="1">
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="1">
         <v>1.4769999999999996</v>
       </c>
-      <c r="B26" s="1">
+      <c r="D25" s="1">
         <v>26.91</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27" s="1">
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="1">
         <v>1.5419999999999996</v>
       </c>
-      <c r="B27" s="1">
+      <c r="D26" s="1">
         <v>26.91</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" s="1">
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="1">
         <v>1.6059999999999997</v>
       </c>
-      <c r="B28" s="1">
+      <c r="D27" s="1">
         <v>26.91</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" s="1">
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="1">
         <v>1.6709999999999996</v>
       </c>
-      <c r="B29" s="1">
+      <c r="D28" s="1">
         <v>26.91</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" s="1">
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="1">
         <v>1.7339999999999995</v>
       </c>
-      <c r="B30" s="1">
+      <c r="D29" s="1">
         <v>26.91</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31" s="1">
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="1">
         <v>1.7989999999999995</v>
       </c>
-      <c r="B31" s="1">
+      <c r="D30" s="1">
         <v>26.91</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" s="1">
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="1">
         <v>1.8629999999999995</v>
       </c>
-      <c r="B32" s="1">
+      <c r="D31" s="1">
         <v>26.91</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" s="1">
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="1">
         <v>1.9279999999999995</v>
       </c>
-      <c r="B33" s="1">
+      <c r="D32" s="1">
         <v>27.64</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A34" s="1">
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="1">
         <v>1.9909999999999994</v>
       </c>
-      <c r="B34" s="1">
+      <c r="D33" s="1">
         <v>27.64</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A35" s="1">
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="1">
         <v>2.0559999999999996</v>
       </c>
-      <c r="B35" s="1">
+      <c r="D34" s="1">
         <v>27.64</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A36" s="1">
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="1">
         <v>2.1199999999999997</v>
       </c>
-      <c r="B36" s="1">
+      <c r="D35" s="1">
         <v>27.64</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A37" s="1">
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="1">
         <v>2.1849999999999996</v>
       </c>
-      <c r="B37" s="1">
+      <c r="D36" s="1">
         <v>27.64</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A38" s="1">
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="1">
         <v>2.2479999999999998</v>
       </c>
-      <c r="B38" s="1">
+      <c r="D37" s="1">
         <v>27.64</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A39" s="1">
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="1">
         <v>2.3129999999999997</v>
       </c>
-      <c r="B39" s="1">
+      <c r="D38" s="1">
         <v>27.64</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A40" s="1">
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="1">
         <v>2.3769999999999998</v>
       </c>
-      <c r="B40" s="1">
+      <c r="D39" s="1">
         <v>27.64</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A41" s="1">
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="1">
         <v>2.4419999999999997</v>
       </c>
-      <c r="B41" s="1">
+      <c r="D40" s="1">
         <v>27.64</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A42" s="1">
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="1">
         <v>2.5049999999999999</v>
       </c>
-      <c r="B42" s="1">
+      <c r="D41" s="1">
         <v>27.64</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A43" s="1">
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="1">
         <v>2.57</v>
       </c>
-      <c r="B43" s="1">
+      <c r="D42" s="1">
         <v>27.64</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A44" s="1">
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="1">
         <v>2.6339999999999999</v>
       </c>
-      <c r="B44" s="1">
+      <c r="D43" s="1">
         <v>27.64</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A45" s="1">
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="1">
         <v>2.6989999999999998</v>
       </c>
-      <c r="B45" s="1">
+      <c r="D44" s="1">
         <v>27.64</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A46" s="1">
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="1">
         <v>2.762</v>
       </c>
-      <c r="B46" s="1">
+      <c r="D45" s="1">
         <v>27.64</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A47" s="1">
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="1">
         <v>2.827</v>
       </c>
-      <c r="B47" s="1">
+      <c r="D46" s="1">
         <v>27.64</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A48" s="1">
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="1">
         <v>2.891</v>
       </c>
-      <c r="B48" s="1">
+      <c r="D47" s="1">
         <v>27.64</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A49" s="1">
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="1">
         <v>2.956</v>
       </c>
-      <c r="B49" s="1">
+      <c r="D48" s="1">
         <v>27.64</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A50" s="1">
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="1">
         <v>3.0190000000000001</v>
       </c>
-      <c r="B50" s="1">
+      <c r="D49" s="1">
         <v>27.64</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A51" s="1">
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="1">
         <v>3.0840000000000001</v>
       </c>
-      <c r="B51" s="1">
+      <c r="D50" s="1">
         <v>27.64</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A52" s="1">
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="1">
         <v>3.1480000000000001</v>
       </c>
-      <c r="B52" s="1">
+      <c r="D51" s="1">
         <v>27.64</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A53" s="1">
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="1">
         <v>3.2130000000000001</v>
       </c>
-      <c r="B53" s="1">
+      <c r="D52" s="1">
         <v>27.64</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A54" s="1">
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="1">
         <v>3.2760000000000002</v>
       </c>
-      <c r="B54" s="1">
+      <c r="D53" s="1">
         <v>27.64</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A55" s="1">
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="1">
         <v>3.3410000000000002</v>
       </c>
-      <c r="B55" s="1">
+      <c r="D54" s="1">
         <v>27.64</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A56" s="1">
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="1">
         <v>3.4050000000000002</v>
       </c>
-      <c r="B56" s="1">
+      <c r="D55" s="1">
         <v>27.64</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A57" s="1">
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="1">
         <v>3.47</v>
       </c>
-      <c r="B57" s="1">
+      <c r="D56" s="1">
         <v>27.64</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A58" s="1">
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="1">
         <v>3.5330000000000004</v>
       </c>
-      <c r="B58" s="1">
+      <c r="D57" s="1">
         <v>27.64</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A59" s="1">
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="1">
         <v>3.5980000000000003</v>
       </c>
-      <c r="B59" s="1">
+      <c r="D58" s="1">
         <v>27.64</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A60" s="1">
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="1">
         <v>3.6620000000000004</v>
       </c>
-      <c r="B60" s="1">
+      <c r="D59" s="1">
         <v>27.64</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A61" s="1">
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="1">
         <v>3.7260000000000004</v>
       </c>
-      <c r="B61" s="1">
+      <c r="D60" s="1">
         <v>26.91</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A62" s="1">
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="1">
         <v>3.7900000000000005</v>
       </c>
-      <c r="B62" s="1">
+      <c r="D61" s="1">
         <v>25.44</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A63" s="1">
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="1">
         <v>3.8550000000000004</v>
       </c>
-      <c r="B63" s="1">
+      <c r="D62" s="1">
         <v>23.97</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A64" s="1">
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="1">
         <v>3.9190000000000005</v>
       </c>
-      <c r="B64" s="1">
+      <c r="D63" s="1">
         <v>21.77</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A65" s="1">
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="1">
         <v>3.9830000000000005</v>
       </c>
-      <c r="B65" s="1">
+      <c r="D64" s="1">
         <v>18.84</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A66" s="1">
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="1">
         <v>4.0470000000000006</v>
       </c>
-      <c r="B66" s="1">
+      <c r="D65" s="1">
         <v>15.91</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A67" s="1">
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="1">
         <v>4.112000000000001</v>
       </c>
-      <c r="B67" s="1">
+      <c r="D66" s="1">
         <v>14.44</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A68" s="1">
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="1">
         <v>4.1770000000000014</v>
       </c>
-      <c r="B68" s="1">
+      <c r="D67" s="1">
         <v>13.71</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A69" s="1">
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="1">
         <v>4.2400000000000011</v>
       </c>
-      <c r="B69" s="1">
+      <c r="D68" s="1">
         <v>13.71</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A70" s="1">
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="1">
         <v>4.3050000000000015</v>
       </c>
-      <c r="B70" s="1">
+      <c r="D69" s="1">
         <v>12.24</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A71" s="1">
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="1">
         <v>4.3690000000000015</v>
       </c>
-      <c r="B71" s="1">
+      <c r="D70" s="1">
         <v>11.51</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A72" s="1">
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="1">
         <v>4.4340000000000019</v>
       </c>
-      <c r="B72" s="1">
+      <c r="D71" s="1">
         <v>10.78</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A73" s="1">
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="1">
         <v>4.4970000000000017</v>
       </c>
-      <c r="B73" s="1">
+      <c r="D72" s="1">
         <v>10.039999999999999</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A74" s="1">
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="1">
         <v>4.5620000000000021</v>
       </c>
-      <c r="B74" s="1">
+      <c r="D73" s="1">
         <v>9.31</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A75" s="1">
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="1">
         <v>4.6260000000000021</v>
       </c>
-      <c r="B75" s="1">
+      <c r="D74" s="1">
         <v>8.58</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A76" s="1">
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="1">
         <v>4.6910000000000025</v>
       </c>
-      <c r="B76" s="1">
+      <c r="D75" s="1">
         <v>7.11</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A77" s="1">
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="1">
         <v>4.7540000000000022</v>
       </c>
-      <c r="B77" s="1">
+      <c r="D76" s="1">
         <v>5.65</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A78" s="1">
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="1">
         <v>4.8190000000000026</v>
       </c>
-      <c r="B78" s="1">
+      <c r="D77" s="1">
         <v>4.18</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A79" s="1">
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="1">
         <v>4.8830000000000027</v>
       </c>
-      <c r="B79" s="1">
+      <c r="D78" s="1">
         <v>2.71</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A80" s="1">
+      <c r="E78" s="2"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="1">
         <v>4.9480000000000031</v>
       </c>
-      <c r="B80" s="1">
+      <c r="D79" s="1">
         <v>1.98</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A81" s="1">
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="1">
         <v>5.0110000000000028</v>
       </c>
-      <c r="B81" s="1">
+      <c r="D80" s="1">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A82" s="1">
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="1">
         <v>5.0740000000000025</v>
       </c>
-      <c r="B82" s="1">
+      <c r="D81" s="1">
         <v>0.51</v>
       </c>
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5237,8 +5533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C8E3EE-99AB-4972-A73D-D1EFEBD6EA1A}">
   <dimension ref="A1:AI21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="67" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5254,10 +5550,9 @@
     <col min="13" max="13" width="6.1328125" customWidth="1"/>
     <col min="14" max="14" width="5.86328125" customWidth="1"/>
     <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.73046875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.06640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.06640625" customWidth="1"/>
+    <col min="18" max="19" width="13" customWidth="1"/>
     <col min="20" max="20" width="28.06640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15.265625" bestFit="1" customWidth="1"/>
@@ -5271,47 +5566,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15" x14ac:dyDescent="0.45">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="29" t="s">
+      <c r="J1" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" s="29" t="s">
+      <c r="L1" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="27" t="s">
         <v>27</v>
+      </c>
+      <c r="P1" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="S1" s="41" t="s">
+        <v>49</v>
       </c>
       <c r="X1" s="8"/>
       <c r="AB1" s="8"/>
@@ -5322,7 +5629,7 @@
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A2" s="10">
-        <f>COUNTIF(B2:B58, "&lt;&gt;")</f>
+        <f>COUNTIF(B2:B82, "&lt;&gt;")</f>
         <v>7</v>
       </c>
       <c r="B2" s="10">
@@ -5353,7 +5660,7 @@
         <v>10</v>
       </c>
       <c r="K2" s="10">
-        <f>LARGE(Loading!B3:B82,1)</f>
+        <f>LARGE(Loading!D2:D81,1)</f>
         <v>27.64</v>
       </c>
       <c r="L2" s="10">
@@ -5367,6 +5674,16 @@
       <c r="N2" s="10">
         <f>M2-1</f>
         <v>4</v>
+      </c>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="40">
+        <v>1</v>
+      </c>
+      <c r="R2" s="40">
+        <v>1</v>
+      </c>
+      <c r="S2" s="40">
+        <v>1</v>
       </c>
       <c r="X2" s="5"/>
       <c r="AB2" s="5"/>
@@ -5394,7 +5711,7 @@
       <c r="G3" s="1">
         <v>6</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="18">
         <v>1</v>
       </c>
       <c r="I3" s="1">
@@ -5404,7 +5721,7 @@
         <v>120</v>
       </c>
       <c r="K3" s="1">
-        <f>LARGE(Loading!B3:B82,1)</f>
+        <f>LARGE(Loading!D2:D81,1)</f>
         <v>27.64</v>
       </c>
       <c r="L3" s="1">
@@ -5415,7 +5732,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="10">
         <f t="shared" ref="N3:N7" si="2">M3-1</f>
         <v>6</v>
       </c>
@@ -5457,7 +5774,7 @@
         <v>12</v>
       </c>
       <c r="K4" s="10">
-        <f>LARGE(Loading!B3:B82,1)</f>
+        <f>LARGE(Loading!D2:D81,1)</f>
         <v>27.64</v>
       </c>
       <c r="L4" s="10">
@@ -5500,7 +5817,7 @@
       <c r="G5" s="1">
         <v>7</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="18">
         <v>2</v>
       </c>
       <c r="I5" s="1">
@@ -5518,7 +5835,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="10">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -5559,7 +5876,7 @@
         <v>25</v>
       </c>
       <c r="K6" s="10">
-        <f>(LARGE(Loading!B3:B82,1))*0.965</f>
+        <f>(LARGE(Loading!D2:D81,1))*0.965</f>
         <v>26.672599999999999</v>
       </c>
       <c r="L6" s="10">
@@ -5601,7 +5918,7 @@
       <c r="G7" s="1">
         <v>7</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="18">
         <v>2</v>
       </c>
       <c r="I7" s="1">
@@ -5610,7 +5927,7 @@
       <c r="J7" s="1">
         <v>30</v>
       </c>
-      <c r="K7" s="20"/>
+      <c r="K7" s="19"/>
       <c r="L7" s="1">
         <f t="shared" si="0"/>
         <v>53.577047324390669</v>
@@ -5619,7 +5936,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5642,16 +5959,16 @@
       <c r="D8" s="10">
         <v>23.3</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="10">
         <v>7</v>
       </c>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
       <c r="K8" s="10">
-        <f>(LARGE(Loading!B3:B82,1))*0.0183</f>
+        <f>(LARGE(Loading!D2:D81,1))*0.0183</f>
         <v>0.50581200000000004</v>
       </c>
       <c r="L8" s="10"/>
@@ -5666,19 +5983,19 @@
       <c r="AH8" s="7"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
       <c r="S9" s="5"/>
       <c r="X9" s="5"/>
       <c r="AB9" s="5"/>
@@ -5698,9 +6015,9 @@
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
@@ -5716,19 +6033,19 @@
       <c r="AH10" s="7"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
@@ -5754,9 +6071,9 @@
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
@@ -5775,19 +6092,19 @@
       <c r="AH12" s="7"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
@@ -5816,9 +6133,9 @@
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
@@ -5837,19 +6154,19 @@
       <c r="AH14" s="7"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
@@ -5878,9 +6195,9 @@
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
@@ -5899,19 +6216,19 @@
       <c r="AH16" s="7"/>
     </row>
     <row r="17" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
@@ -5940,9 +6257,9 @@
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
